--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sjmch-my.sharepoint.com/personal/franciosalgeo_g_sjri_res_in/Documents/2020 -/Work/Classes/R programming Course/Course Material/Assignments/Week 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Data-Science-prac1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B5616065-BF17-423D-AED8-038607E168AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD99BDC-130F-4B93-AECA-E799CCFF6AB7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6D0DAF-BF14-CE4B-82EE-3B45758EE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{99F57953-DB1D-4E05-B510-221D15D46FA0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{99F57953-DB1D-4E05-B510-221D15D46FA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,10 +210,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,12 +245,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,17 +567,17 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -583,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -599,7 +604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -607,7 +612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -615,7 +620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -623,7 +628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -631,7 +636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -639,7 +644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -647,18 +652,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -669,7 +674,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -680,7 +685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -691,7 +696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -702,7 +707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -713,7 +718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -724,7 +729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -735,7 +740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -746,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -757,7 +762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -768,7 +773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -779,7 +784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -787,7 +792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -796,6 +801,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>